--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>Parque Fotovoltaico Andino Occidente I</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Parque Fotovoltaico Andino Occidente SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31678</v>
+        <v>180000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>17/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155823525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente I</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>180000</v>
+        <v>31678</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153961128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Olona</t>
+          <t>Parque Fotovoltaico Andino Occidente I</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CERCEDA ENERGIA SPA</t>
+          <t>Parque Fotovoltaico Andino Occidente SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11000</v>
+        <v>180000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08/09/2021</t>
+          <t>17/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151771640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153961128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto Embalse Quiñicaben</t>
+          <t>Parque Solar Fotovoltaico Olona</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Katia Kalafatovic Kucer</t>
+          <t>CERCEDA ENERGIA SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1050</v>
+        <v>11000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>08/09/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151899675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151771640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Cuzco</t>
+          <t>Proyecto Embalse Quiñicaben</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,11 +631,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MVC SOLAR 31 SpA</t>
+          <t>Katia Kalafatovic Kucer</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>11000</v>
+        <v>1050</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -644,12 +644,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151758864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151899675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151466571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151758864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embalse Quiñicaben</t>
+          <t>Parque Fotovoltaico El Cuzco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Katia Kalafatovic Kucer</t>
+          <t>MVC SOLAR 31 SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1050</v>
+        <v>11000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148352942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151466571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Subestación eléctrica y línea de transmisión 1x110 kV Cardonal ? Quelentaro</t>
+          <t>Embalse Quiñicaben</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>Katia Kalafatovic Kucer</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11500</v>
+        <v>1050</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146793180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148352942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Parque Eólico Litueche</t>
+          <t>Subestación eléctrica y línea de transmisión 1x110 kV Cardonal ? Quelentaro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Parque Eólico Litueche SpA</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>242000</v>
+        <v>11500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146333771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146793180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Embalse Quiñicabe</t>
+          <t>Actualización Proyecto Parque Eólico Litueche</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Katia Kalafatovic Kucer</t>
+          <t>Parque Eólico Litueche SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1050</v>
+        <v>242000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146333771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DIA Ampliación Tranque San Vicente</t>
+          <t>Embalse Quiñicabe</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eduardo Doberti Guic</t>
+          <t>Katia Kalafatovic Kucer</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>511</v>
+        <v>1050</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/12/2018</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142104929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Eólico Litueche</t>
+          <t>DIA Ampliación Tranque San Vicente</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Parque Eólico Litueche SpA</t>
+          <t>Eduardo Doberti Guic</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>150000</v>
+        <v>511</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>20/12/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142104929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Parque Eólico Litueche SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/12/2017</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138013647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación Tranque de Regulación Matancilla</t>
+          <t>Parque Eólico Litueche</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AGRICOLA HUECHUN LIMITADA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1610</v>
+        <v>150000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>03/10/2017</t>
+          <t>21/12/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132764579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138013647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"PARQUE EÓLICO SANTA ANA" Andes Mainstream SpA</t>
+          <t>Ampliación Tranque de Regulación Matancilla</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>AGRICOLA HUECHUN LIMITADA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>440000</v>
+        <v>1610</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>03/10/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131948069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132764579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Eólico Los Cerrillos.</t>
+          <t>"PARQUE EÓLICO SANTA ANA" Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>67000</v>
+        <v>440000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131948069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,30 +1192,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Lo Aguirre - Alto Melipilla y Alto Melipilla - Rapel</t>
+          <t>Parque Eólico Los Cerrillos.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>77000</v>
+        <v>67000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/06/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131447464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,40 +1240,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Tranque de Regulación Matancilla</t>
+          <t>Línea de Transmisión Lo Aguirre - Alto Melipilla y Alto Melipilla - Rapel</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AGRICOLA HUECHUN LIMITADA</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1610</v>
+        <v>77000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>08/06/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131094988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131447464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Eólico Manantiales</t>
+          <t>Ampliación Tranque de Regulación Matancilla</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>AGRICOLA HUECHUN LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>47132</v>
+        <v>1610</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131015614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131094988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas para la comuna de Litueche, 6ta Región</t>
+          <t>Parque Eólico Manantiales</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1271</v>
+        <v>47132</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/11/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130922374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131015614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,40 +1384,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROYECTO "NUEVA LÍNEA 1x220 kV ALTO MELIPILLA - RAPEL Y NUEVA LÍNEA 2x220 kV LO AGUIRRE - ALTO MELIPILLA, CON UN CIRCUITO TENDIDO"</t>
+          <t>Planta de tratamiento de aguas servidas para la comuna de Litueche, 6ta Región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>77000</v>
+        <v>1271</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>19/11/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130730502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130922374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,40 +1432,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Eólico Cardonal</t>
+          <t>PROYECTO "NUEVA LÍNEA 1x220 kV ALTO MELIPILLA - RAPEL Y NUEVA LÍNEA 2x220 kV LO AGUIRRE - ALTO MELIPILLA, CON UN CIRCUITO TENDIDO"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>66000</v>
+        <v>77000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130730502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Parque Eólico Cardonal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20000</v>
+        <v>66000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Eólico La Estrella</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Eólica La Estrella SpA</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de litueche 4ta versión</t>
+          <t>Parque Eólico La Estrella</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,11 +1639,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Rene Santiago Acuña Echeverría</t>
+          <t>Eólica La Estrella SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1271</v>
+        <v>105000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130229838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Eólico Cardonal</t>
+          <t>Planta de Tratamiento de Aguas Servidas de litueche 4ta versión</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Torsa Chile S.A.</t>
+          <t>Rene Santiago Acuña Echeverría</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>66000</v>
+        <v>1271</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130229838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Tranque de Regulación Matancilla</t>
+          <t>Parque Eólico Cardonal</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AGRICOLA HUECHUN LIMITADA</t>
+          <t>Torsa Chile S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1610</v>
+        <v>66000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>20/01/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,30 +1768,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>Proyecto Ampliación Tranque de Regulación Matancilla</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>AGRICOLA HUECHUN LIMITADA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>77000</v>
+        <v>1610</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,40 +1816,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE 3 era Version</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rene Santiago Acuña Echeverría</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1271</v>
+        <v>77000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129629500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación del Tranque de Acumulación de Aguas para Riego Fundo Ucúquer</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE 3 era Version</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Rene Santiago Acuña Echeverría</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>469</v>
+        <v>1271</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129629500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas de Litueche</t>
+          <t>Ampliación del Tranque de Acumulación de Aguas para Riego Fundo Ucúquer</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>850</v>
+        <v>469</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05/04/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8031146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE</t>
+          <t>Planta de tratamiento de aguas servidas de Litueche</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>02/04/2013</t>
+          <t>05/04/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8013354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8031146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tranque de Regulación Ucúquer</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Agrícola Cahuel Limitada</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1610</v>
+        <v>850</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/07/2012</t>
+          <t>02/04/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7161384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8013354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Parcelas de Ucuquer</t>
+          <t>Agrícola Cahuel Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>30/07/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7161384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Tranque de Regulación Ucúquer</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Comunidad de Aguas Parcelas de Ucuquer</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>1610</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Parque Eólico Ucuquer</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Energías Ucuquer S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>36000</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6207932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Parque Eólico Ucuquer</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Energías Ucuquer S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>36000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>23/11/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6207932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIA Plantel de Aves Reproductoras San Miguel (segunda presentación) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Agrícola Ariztía Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3300</v>
+        <v>22</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>DIA Plantel de Aves Reproductoras San Miguel (segunda presentación) (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Agrícola Ariztía Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>3300</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Plantel de Aves Reproductoras San Miguel (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Agricola Ariztia Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3300</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>14/03/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Plantel de Aves Ucúquer (e-seia)</t>
+          <t>Plantel de Aves Reproductoras San Miguel (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,11 +2555,11 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>12000</v>
+        <v>3300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04/01/2008</t>
+          <t>14/03/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2611372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Plantel de Aves Ucúquer (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Agricola Ariztia Ltda</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>234</v>
+        <v>12000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>04/01/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2611372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>30/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1138558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR LOCALIDAD DE LITUECHE (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>29/09/2005</t>
+          <t>30/11/2005</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1041701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1138558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR LOCALIDAD DE LITUECHE (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,20 +3122,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>29/09/2005</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1041701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>29/12/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=553470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>29/12/2004</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=553470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Litueche</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Litueche</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>28/06/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,12 +3352,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hacienda Topocalma</t>
+          <t>Relleno Sanitario Comuna de Litueche</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Inversiones y Gestión S.A.</t>
+          <t>Ilustre Municipalidad de Litueche</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>300000</v>
+        <v>20</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>30/11/2000</t>
+          <t>28/06/2002</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,43 +3400,91 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>Hacienda Topocalma</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Inversiones y Gestión S.A.</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>30/11/2000</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Caducado</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3405&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Litueche</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>Subdivisión Parcela Nº19 Bahía Atenas</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>Sociedad de Inversiones Cicar Ltda.</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="F65" t="n">
         <v>0</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>26/04/1999</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1908&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Litueche</t>
         </is>

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/05/2022</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente I</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>180000</v>
+        <v>31678</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>14/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155823525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>Parque Fotovoltaico Andino Occidente I</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Parque Fotovoltaico Andino Occidente SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31678</v>
+        <v>180000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155823525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente I</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>180000</v>
+        <v>31678</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153961128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Olona</t>
+          <t>Parque Fotovoltaico Andino Occidente I</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CERCEDA ENERGIA SPA</t>
+          <t>Parque Fotovoltaico Andino Occidente SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11000</v>
+        <v>180000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08/09/2021</t>
+          <t>17/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151771640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153961128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Embalse Quiñicaben</t>
+          <t>Parque Solar Fotovoltaico Olona</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Katia Kalafatovic Kucer</t>
+          <t>CERCEDA ENERGIA SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1050</v>
+        <v>11000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>08/09/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151899675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151771640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Cuzco</t>
+          <t>Proyecto Embalse Quiñicaben</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MVC SOLAR 31 SpA</t>
+          <t>Katia Kalafatovic Kucer</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>11000</v>
+        <v>1050</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -692,12 +692,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151758864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151899675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151466571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151758864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embalse Quiñicaben</t>
+          <t>Parque Fotovoltaico El Cuzco</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Katia Kalafatovic Kucer</t>
+          <t>MVC SOLAR 31 SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1050</v>
+        <v>11000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148352942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151466571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Subestación eléctrica y línea de transmisión 1x110 kV Cardonal ? Quelentaro</t>
+          <t>Embalse Quiñicaben</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>Katia Kalafatovic Kucer</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11500</v>
+        <v>1050</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146793180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148352942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Parque Eólico Litueche</t>
+          <t>Subestación eléctrica y línea de transmisión 1x110 kV Cardonal ? Quelentaro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parque Eólico Litueche SpA</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>242000</v>
+        <v>11500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146333771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146793180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Embalse Quiñicabe</t>
+          <t>Actualización Proyecto Parque Eólico Litueche</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Katia Kalafatovic Kucer</t>
+          <t>Parque Eólico Litueche SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1050</v>
+        <v>242000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146333771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DIA Ampliación Tranque San Vicente</t>
+          <t>Embalse Quiñicabe</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eduardo Doberti Guic</t>
+          <t>Katia Kalafatovic Kucer</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>511</v>
+        <v>1050</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/12/2018</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142104929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Eólico Litueche</t>
+          <t>DIA Ampliación Tranque San Vicente</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Parque Eólico Litueche SpA</t>
+          <t>Eduardo Doberti Guic</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>150000</v>
+        <v>511</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>20/12/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142104929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Parque Eólico Litueche SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/12/2017</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138013647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Tranque de Regulación Matancilla</t>
+          <t>Parque Eólico Litueche</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AGRICOLA HUECHUN LIMITADA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1610</v>
+        <v>150000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03/10/2017</t>
+          <t>21/12/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132764579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138013647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"PARQUE EÓLICO SANTA ANA" Andes Mainstream SpA</t>
+          <t>Ampliación Tranque de Regulación Matancilla</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>AGRICOLA HUECHUN LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>440000</v>
+        <v>1610</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>03/10/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131948069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132764579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Eólico Los Cerrillos.</t>
+          <t>"PARQUE EÓLICO SANTA ANA" Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>67000</v>
+        <v>440000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131948069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,30 +1240,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Lo Aguirre - Alto Melipilla y Alto Melipilla - Rapel</t>
+          <t>Parque Eólico Los Cerrillos.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>77000</v>
+        <v>67000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/06/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131447464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,40 +1288,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Tranque de Regulación Matancilla</t>
+          <t>Línea de Transmisión Lo Aguirre - Alto Melipilla y Alto Melipilla - Rapel</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AGRICOLA HUECHUN LIMITADA</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1610</v>
+        <v>77000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>08/06/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131094988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131447464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Eólico Manantiales</t>
+          <t>Ampliación Tranque de Regulación Matancilla</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>AGRICOLA HUECHUN LIMITADA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>47132</v>
+        <v>1610</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131015614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131094988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas para la comuna de Litueche, 6ta Región</t>
+          <t>Parque Eólico Manantiales</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1271</v>
+        <v>47132</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/11/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130922374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131015614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,40 +1432,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROYECTO "NUEVA LÍNEA 1x220 kV ALTO MELIPILLA - RAPEL Y NUEVA LÍNEA 2x220 kV LO AGUIRRE - ALTO MELIPILLA, CON UN CIRCUITO TENDIDO"</t>
+          <t>Planta de tratamiento de aguas servidas para la comuna de Litueche, 6ta Región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>77000</v>
+        <v>1271</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>19/11/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130730502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130922374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,40 +1480,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Eólico Cardonal</t>
+          <t>PROYECTO "NUEVA LÍNEA 1x220 kV ALTO MELIPILLA - RAPEL Y NUEVA LÍNEA 2x220 kV LO AGUIRRE - ALTO MELIPILLA, CON UN CIRCUITO TENDIDO"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>66000</v>
+        <v>77000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130730502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Parque Eólico Cardonal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>20000</v>
+        <v>66000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Eólico La Estrella</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Eólica La Estrella SpA</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de litueche 4ta versión</t>
+          <t>Parque Eólico La Estrella</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rene Santiago Acuña Echeverría</t>
+          <t>Eólica La Estrella SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1271</v>
+        <v>105000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130229838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Eólico Cardonal</t>
+          <t>Planta de Tratamiento de Aguas Servidas de litueche 4ta versión</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Torsa Chile S.A.</t>
+          <t>Rene Santiago Acuña Echeverría</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>66000</v>
+        <v>1271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130229838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Tranque de Regulación Matancilla</t>
+          <t>Parque Eólico Cardonal</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AGRICOLA HUECHUN LIMITADA</t>
+          <t>Torsa Chile S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1610</v>
+        <v>66000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>20/01/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,30 +1816,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>Proyecto Ampliación Tranque de Regulación Matancilla</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>AGRICOLA HUECHUN LIMITADA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>77000</v>
+        <v>1610</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,40 +1864,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE 3 era Version</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rene Santiago Acuña Echeverría</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1271</v>
+        <v>77000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129629500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación del Tranque de Acumulación de Aguas para Riego Fundo Ucúquer</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE 3 era Version</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Rene Santiago Acuña Echeverría</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>469</v>
+        <v>1271</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129629500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas de Litueche</t>
+          <t>Ampliación del Tranque de Acumulación de Aguas para Riego Fundo Ucúquer</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>850</v>
+        <v>469</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/04/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8031146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE</t>
+          <t>Planta de tratamiento de aguas servidas de Litueche</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02/04/2013</t>
+          <t>05/04/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8013354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8031146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tranque de Regulación Ucúquer</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Agrícola Cahuel Limitada</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1610</v>
+        <v>850</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30/07/2012</t>
+          <t>02/04/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7161384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8013354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Parcelas de Ucuquer</t>
+          <t>Agrícola Cahuel Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>30/07/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7161384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Tranque de Regulación Ucúquer</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Comunidad de Aguas Parcelas de Ucuquer</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>1610</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Parque Eólico Ucuquer</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Energías Ucuquer S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>36000</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6207932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Parque Eólico Ucuquer</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Energías Ucuquer S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>36000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>23/11/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6207932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DIA Plantel de Aves Reproductoras San Miguel (segunda presentación) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Agrícola Ariztía Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3300</v>
+        <v>22</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>DIA Plantel de Aves Reproductoras San Miguel (segunda presentación) (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Agrícola Ariztía Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>250</v>
+        <v>3300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Plantel de Aves Reproductoras San Miguel (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Agricola Ariztia Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3300</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/03/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Plantel de Aves Ucúquer (e-seia)</t>
+          <t>Plantel de Aves Reproductoras San Miguel (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,11 +2603,11 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>12000</v>
+        <v>3300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04/01/2008</t>
+          <t>14/03/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2611372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Plantel de Aves Ucúquer (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Agricola Ariztia Ltda</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>234</v>
+        <v>12000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>04/01/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2611372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1138558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR LOCALIDAD DE LITUECHE (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>29/09/2005</t>
+          <t>30/11/2005</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1041701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1138558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR LOCALIDAD DE LITUECHE (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>29/09/2005</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1041701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>29/12/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=553470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>29/12/2004</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=553470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Litueche</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Litueche</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>28/06/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,12 +3400,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hacienda Topocalma</t>
+          <t>Relleno Sanitario Comuna de Litueche</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Inversiones y Gestión S.A.</t>
+          <t>Ilustre Municipalidad de Litueche</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>300000</v>
+        <v>20</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>30/11/2000</t>
+          <t>28/06/2002</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,43 +3448,91 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>Hacienda Topocalma</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Inversiones y Gestión S.A.</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>30/11/2000</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Caducado</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3405&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Litueche</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>Subdivisión Parcela Nº19 Bahía Atenas</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>Sociedad de Inversiones Cicar Ltda.</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="F66" t="n">
         <v>0</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>26/04/1999</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1908&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Litueche</t>
         </is>

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F18" t="n">

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
+          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/07/2022</t>
+          <t>03/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente I</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>180000</v>
+        <v>31678</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155823525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>Parque Fotovoltaico Andino Occidente I</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Parque Fotovoltaico Andino Occidente SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>31678</v>
+        <v>180000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155823525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente I</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>180000</v>
+        <v>31678</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153961128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Olona</t>
+          <t>Parque Fotovoltaico Andino Occidente I</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CERCEDA ENERGIA SPA</t>
+          <t>Parque Fotovoltaico Andino Occidente SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>11000</v>
+        <v>180000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08/09/2021</t>
+          <t>17/11/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151771640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153961128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proyecto Embalse Quiñicaben</t>
+          <t>Parque Solar Fotovoltaico Olona</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Katia Kalafatovic Kucer</t>
+          <t>CERCEDA ENERGIA SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1050</v>
+        <v>11000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>08/09/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151899675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151771640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Cuzco</t>
+          <t>Proyecto Embalse Quiñicaben</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,11 +727,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MVC SOLAR 31 SpA</t>
+          <t>Katia Kalafatovic Kucer</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11000</v>
+        <v>1050</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151758864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151899675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151466571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151758864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Embalse Quiñicaben</t>
+          <t>Parque Fotovoltaico El Cuzco</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Katia Kalafatovic Kucer</t>
+          <t>MVC SOLAR 31 SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1050</v>
+        <v>11000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148352942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151466571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Subestación eléctrica y línea de transmisión 1x110 kV Cardonal ? Quelentaro</t>
+          <t>Embalse Quiñicaben</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>Katia Kalafatovic Kucer</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11500</v>
+        <v>1050</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146793180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148352942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Parque Eólico Litueche</t>
+          <t>Subestación eléctrica y línea de transmisión 1x110 kV Cardonal ? Quelentaro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parque Eólico Litueche SpA</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>242000</v>
+        <v>11500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146333771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146793180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Embalse Quiñicabe</t>
+          <t>Actualización Proyecto Parque Eólico Litueche</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Katia Kalafatovic Kucer</t>
+          <t>Parque Eólico Litueche SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1050</v>
+        <v>242000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146333771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DIA Ampliación Tranque San Vicente</t>
+          <t>Embalse Quiñicabe</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eduardo Doberti Guic</t>
+          <t>Katia Kalafatovic Kucer</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>511</v>
+        <v>1050</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/12/2018</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142104929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145051077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Eólico Litueche</t>
+          <t>DIA Ampliación Tranque San Vicente</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Parque Eólico Litueche SpA</t>
+          <t>Eduardo Doberti Guic</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>150000</v>
+        <v>511</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>20/12/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142104929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Parque Eólico Litueche SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/12/2017</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138013647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación Tranque de Regulación Matancilla</t>
+          <t>Parque Eólico Litueche</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AGRICOLA HUECHUN LIMITADA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1610</v>
+        <v>150000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>03/10/2017</t>
+          <t>21/12/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132764579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138013647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"PARQUE EÓLICO SANTA ANA" Andes Mainstream SpA</t>
+          <t>Ampliación Tranque de Regulación Matancilla</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>AGRICOLA HUECHUN LIMITADA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>440000</v>
+        <v>1610</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>03/10/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131948069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132764579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Eólico Los Cerrillos.</t>
+          <t>"PARQUE EÓLICO SANTA ANA" Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>67000</v>
+        <v>440000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131948069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,30 +1288,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Lo Aguirre - Alto Melipilla y Alto Melipilla - Rapel</t>
+          <t>Parque Eólico Los Cerrillos.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>77000</v>
+        <v>67000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/06/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131447464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,40 +1336,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Tranque de Regulación Matancilla</t>
+          <t>Línea de Transmisión Lo Aguirre - Alto Melipilla y Alto Melipilla - Rapel</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AGRICOLA HUECHUN LIMITADA</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1610</v>
+        <v>77000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>08/06/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131094988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131447464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Eólico Manantiales</t>
+          <t>Ampliación Tranque de Regulación Matancilla</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>AGRICOLA HUECHUN LIMITADA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>47132</v>
+        <v>1610</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131015614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131094988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas para la comuna de Litueche, 6ta Región</t>
+          <t>Parque Eólico Manantiales</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1271</v>
+        <v>47132</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/11/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130922374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131015614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,40 +1480,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROYECTO "NUEVA LÍNEA 1x220 kV ALTO MELIPILLA - RAPEL Y NUEVA LÍNEA 2x220 kV LO AGUIRRE - ALTO MELIPILLA, CON UN CIRCUITO TENDIDO"</t>
+          <t>Planta de tratamiento de aguas servidas para la comuna de Litueche, 6ta Región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>77000</v>
+        <v>1271</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>19/11/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130730502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130922374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,40 +1528,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Eólico Cardonal</t>
+          <t>PROYECTO "NUEVA LÍNEA 1x220 kV ALTO MELIPILLA - RAPEL Y NUEVA LÍNEA 2x220 kV LO AGUIRRE - ALTO MELIPILLA, CON UN CIRCUITO TENDIDO"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Statkraft eólico S.A.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>66000</v>
+        <v>77000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130730502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Parque Eólico Cardonal</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Statkraft eólico S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>20000</v>
+        <v>66000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Eólico La Estrella</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Eólica La Estrella SpA</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de litueche 4ta versión</t>
+          <t>Parque Eólico La Estrella</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,11 +1735,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rene Santiago Acuña Echeverría</t>
+          <t>Eólica La Estrella SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1271</v>
+        <v>105000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130229838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Eólico Cardonal</t>
+          <t>Planta de Tratamiento de Aguas Servidas de litueche 4ta versión</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Torsa Chile S.A.</t>
+          <t>Rene Santiago Acuña Echeverría</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>66000</v>
+        <v>1271</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130229838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Tranque de Regulación Matancilla</t>
+          <t>Parque Eólico Cardonal</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AGRICOLA HUECHUN LIMITADA</t>
+          <t>Torsa Chile S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1610</v>
+        <v>66000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>20/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,30 +1864,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>Proyecto Ampliación Tranque de Regulación Matancilla</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>AGRICOLA HUECHUN LIMITADA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>77000</v>
+        <v>1610</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,40 +1912,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE 3 era Version</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Rene Santiago Acuña Echeverría</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1271</v>
+        <v>77000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129629500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ampliación del Tranque de Acumulación de Aguas para Riego Fundo Ucúquer</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE 3 era Version</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Rene Santiago Acuña Echeverría</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>469</v>
+        <v>1271</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129629500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas de Litueche</t>
+          <t>Ampliación del Tranque de Acumulación de Aguas para Riego Fundo Ucúquer</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>850</v>
+        <v>469</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/04/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8031146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE</t>
+          <t>Planta de tratamiento de aguas servidas de Litueche</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02/04/2013</t>
+          <t>05/04/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8013354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8031146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tranque de Regulación Ucúquer</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LITUECHE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Agrícola Cahuel Limitada</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1610</v>
+        <v>850</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30/07/2012</t>
+          <t>02/04/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7161384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8013354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Parcelas de Ucuquer</t>
+          <t>Agrícola Cahuel Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>30/07/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7161384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Tranque de Regulación Ucúquer</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Comunidad de Aguas Parcelas de Ucuquer</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>1610</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Parque Eólico Ucuquer</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Energías Ucuquer S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>36000</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6207932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Parque Eólico Ucuquer</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Energías Ucuquer S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>36000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>23/11/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6207932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DIA Plantel de Aves Reproductoras San Miguel (segunda presentación) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Agrícola Ariztía Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3300</v>
+        <v>22</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>DIA Plantel de Aves Reproductoras San Miguel (segunda presentación) (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Agrícola Ariztía Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>3300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Plantel de Aves Reproductoras San Miguel (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Agricola Ariztia Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3300</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/03/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Plantel de Aves Ucúquer (e-seia)</t>
+          <t>Plantel de Aves Reproductoras San Miguel (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,11 +2651,11 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>12000</v>
+        <v>3300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/01/2008</t>
+          <t>14/03/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2611372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Plantel de Aves Ucúquer (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Agricola Ariztia Ltda</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>234</v>
+        <v>12000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>04/01/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2611372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>30/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1138558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR LOCALIDAD DE LITUECHE (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>29/09/2005</t>
+          <t>30/11/2005</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1041701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1138558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR LOCALIDAD DE LITUECHE (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LITUECHE</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>29/09/2005</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1041701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>29/12/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=553470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR INTERCOMUNAL BORDE COSTERO (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>29/12/2004</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=553470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Litueche</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Litueche</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>28/06/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,12 +3448,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hacienda Topocalma</t>
+          <t>Relleno Sanitario Comuna de Litueche</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Inversiones y Gestión S.A.</t>
+          <t>Ilustre Municipalidad de Litueche</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>300000</v>
+        <v>20</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>30/11/2000</t>
+          <t>28/06/2002</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,43 +3496,91 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>Hacienda Topocalma</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Inversiones y Gestión S.A.</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>30/11/2000</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Caducado</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3405&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Litueche</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>Subdivisión Parcela Nº19 Bahía Atenas</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>Sociedad de Inversiones Cicar Ltda.</t>
         </is>
       </c>
-      <c r="F66" t="n">
+      <c r="F67" t="n">
         <v>0</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>26/04/1999</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1908&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>Litueche</t>
         </is>

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/02/2023</t>
+          <t>17/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AGRICOLA HUECHUN LIMITADA</t>
+          <t>Aguas Rapel SpA</t>
         </is>
       </c>
       <c r="F18" t="n">

--- a/data/Litueche.xlsx
+++ b/data/Litueche.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica Portezuelo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
